--- a/inspection/poi.xlsx
+++ b/inspection/poi.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A4BBBA-3ECA-4BF4-9DDE-4B6B07193924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -307,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,9 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -375,6 +379,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
@@ -664,28 +671,28 @@
       <selection pane="topRight" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="76.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -700,994 +707,994 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="5">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="5">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="E54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C54" s="6"/>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="5">
-        <v>1</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="5">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="5">
-        <v>1</v>
-      </c>
-      <c r="E58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="E59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="5">
-        <v>1</v>
-      </c>
-      <c r="E60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="5">
-        <v>1</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="5">
-        <v>1</v>
-      </c>
-      <c r="E62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="E63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="E64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="5">
-        <v>1</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="5">
-        <v>1</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C66" s="4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="5">
-        <v>1</v>
-      </c>
-      <c r="E67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="5">
-        <v>1</v>
-      </c>
-      <c r="E68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="5">
-        <v>1</v>
-      </c>
-      <c r="E69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="5">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="5">
-        <v>1</v>
-      </c>
-      <c r="E72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="5">
-        <v>1</v>
-      </c>
-      <c r="E73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="5">
-        <v>1</v>
-      </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="5">
-        <v>1</v>
-      </c>
-      <c r="E75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="5">
-        <v>1</v>
-      </c>
-      <c r="E76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="5">
-        <v>1</v>
-      </c>
-      <c r="E77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="5">
-        <v>1</v>
-      </c>
-      <c r="E78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="5">
-        <v>1</v>
-      </c>
-      <c r="E79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="C79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="E80" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="5">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="E82" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="6"/>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="5">
-        <v>1</v>
-      </c>
-      <c r="E83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="5">
-        <v>1</v>
-      </c>
-      <c r="E84" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="5">
-        <v>1</v>
-      </c>
-      <c r="E86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="C86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <f>COUNTIF(B3:B86,1)</f>
         <v>4</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <f t="shared" ref="C89:D89" si="0">COUNTIF(C3:C86,1)</f>
         <v>77</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <f>COUNTIF(E3:E86,1)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <f>COUNTIFS(B3:B86,1,D3:D86,1)</f>
         <v>3</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <f>COUNTIFS(C3:C86,1, E3:E86,1)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <f>B91/B89</f>
         <v>0.75</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <f>C91/C89</f>
         <v>1</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="5">
         <f>B91/D89</f>
         <v>1</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <f>C91/E89</f>
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <f>SUM(B91:C91)/SUM(B89:C89)</f>
         <v>0.98765432098765427</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <f>SUM(B91:C91)/SUM(D89:E89)</f>
         <v>0.96385542168674698</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <f>2*C95*C95/SUM(B95:C95)</f>
         <v>0.95210108727593301</v>
       </c>
